--- a/ConvertedEqual/New Jersey_Converted.xlsx
+++ b/ConvertedEqual/New Jersey_Converted.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="388" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="291">
   <si>
     <t>Policy/Closing</t>
   </si>
@@ -853,6 +853,42 @@
   <si>
     <t>9/29/2020</t>
   </si>
+  <si>
+    <t>9/30/2020</t>
+  </si>
+  <si>
+    <t>10/1/2020</t>
+  </si>
+  <si>
+    <t>10/2/2020</t>
+  </si>
+  <si>
+    <t>10/3/2020</t>
+  </si>
+  <si>
+    <t>10/4/2020</t>
+  </si>
+  <si>
+    <t>10/5/2020</t>
+  </si>
+  <si>
+    <t>10/6/2020</t>
+  </si>
+  <si>
+    <t>10/7/2020</t>
+  </si>
+  <si>
+    <t>10/8/2020</t>
+  </si>
+  <si>
+    <t>10/9/2020</t>
+  </si>
+  <si>
+    <t>10/10/2020</t>
+  </si>
+  <si>
+    <t>10/11/2020</t>
+  </si>
 </sst>
 </file>
 
@@ -1213,7 +1249,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AP221"/>
+  <dimension ref="A1:AP233"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1803,7 +1839,7 @@
         <v>0.3333333333</v>
       </c>
       <c r="AH7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AI7">
         <v>0</v>
@@ -1827,7 +1863,7 @@
         <v>0.125</v>
       </c>
       <c r="AP7">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:42">
@@ -3880,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>0.2820512820461539</v>
+        <v>0.30555555555</v>
       </c>
     </row>
     <row r="25" spans="1:42">
@@ -4008,7 +4044,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>0.3397435897384616</v>
+        <v>0.36805555555</v>
       </c>
     </row>
     <row r="26" spans="1:42">
@@ -4136,7 +4172,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>0.4166666666615384</v>
+        <v>0.4513888888833333</v>
       </c>
     </row>
     <row r="27" spans="1:42">
@@ -4264,7 +4300,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>0.508241758253846</v>
+        <v>0.5505952381083331</v>
       </c>
     </row>
     <row r="28" spans="1:42">
@@ -4392,7 +4428,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.508241758253846</v>
+        <v>0.5505952381083331</v>
       </c>
     </row>
     <row r="29" spans="1:42">
@@ -4520,7 +4556,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="30" spans="1:42">
@@ -4648,7 +4684,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="31" spans="1:42">
@@ -4776,7 +4812,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="32" spans="1:42">
@@ -4904,7 +4940,7 @@
         <v>1</v>
       </c>
       <c r="AP32">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="33" spans="1:42">
@@ -5032,7 +5068,7 @@
         <v>1</v>
       </c>
       <c r="AP33">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="34" spans="1:42">
@@ -5160,7 +5196,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="35" spans="1:42">
@@ -5288,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="AP35">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="36" spans="1:42">
@@ -5416,7 +5452,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="37" spans="1:42">
@@ -5544,7 +5580,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="38" spans="1:42">
@@ -5672,7 +5708,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="39" spans="1:42">
@@ -5800,7 +5836,7 @@
         <v>1</v>
       </c>
       <c r="AP39">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="40" spans="1:42">
@@ -5928,7 +5964,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="41" spans="1:42">
@@ -6056,7 +6092,7 @@
         <v>1</v>
       </c>
       <c r="AP41">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="42" spans="1:42">
@@ -6184,7 +6220,7 @@
         <v>1</v>
       </c>
       <c r="AP42">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="43" spans="1:42">
@@ -6312,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="AP43">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="44" spans="1:42">
@@ -6440,7 +6476,7 @@
         <v>1</v>
       </c>
       <c r="AP44">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="45" spans="1:42">
@@ -6568,7 +6604,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="46" spans="1:42">
@@ -6696,7 +6732,7 @@
         <v>1</v>
       </c>
       <c r="AP46">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="47" spans="1:42">
@@ -6824,7 +6860,7 @@
         <v>1</v>
       </c>
       <c r="AP47">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="48" spans="1:42">
@@ -6952,7 +6988,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="49" spans="1:42">
@@ -7080,7 +7116,7 @@
         <v>1</v>
       </c>
       <c r="AP49">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="50" spans="1:42">
@@ -7208,7 +7244,7 @@
         <v>1</v>
       </c>
       <c r="AP50">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="51" spans="1:42">
@@ -7336,7 +7372,7 @@
         <v>1</v>
       </c>
       <c r="AP51">
-        <v>0.8461538461615383</v>
+        <v>0.8333333333416665</v>
       </c>
     </row>
     <row r="52" spans="1:42">
@@ -7464,7 +7500,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="53" spans="1:42">
@@ -7592,7 +7628,7 @@
         <v>1</v>
       </c>
       <c r="AP53">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="54" spans="1:42">
@@ -7720,7 +7756,7 @@
         <v>1</v>
       </c>
       <c r="AP54">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="55" spans="1:42">
@@ -7848,7 +7884,7 @@
         <v>1</v>
       </c>
       <c r="AP55">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="56" spans="1:42">
@@ -7976,7 +8012,7 @@
         <v>1</v>
       </c>
       <c r="AP56">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="57" spans="1:42">
@@ -8104,7 +8140,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="58" spans="1:42">
@@ -8232,7 +8268,7 @@
         <v>1</v>
       </c>
       <c r="AP58">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="59" spans="1:42">
@@ -8360,7 +8396,7 @@
         <v>1</v>
       </c>
       <c r="AP59">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="60" spans="1:42">
@@ -8488,7 +8524,7 @@
         <v>1</v>
       </c>
       <c r="AP60">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="61" spans="1:42">
@@ -8616,7 +8652,7 @@
         <v>1</v>
       </c>
       <c r="AP61">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="62" spans="1:42">
@@ -8744,7 +8780,7 @@
         <v>1</v>
       </c>
       <c r="AP62">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="63" spans="1:42">
@@ -8872,7 +8908,7 @@
         <v>1</v>
       </c>
       <c r="AP63">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="64" spans="1:42">
@@ -9000,7 +9036,7 @@
         <v>1</v>
       </c>
       <c r="AP64">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="65" spans="1:42">
@@ -9128,7 +9164,7 @@
         <v>1</v>
       </c>
       <c r="AP65">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="66" spans="1:42">
@@ -9256,7 +9292,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="67" spans="1:42">
@@ -9384,7 +9420,7 @@
         <v>1</v>
       </c>
       <c r="AP67">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="68" spans="1:42">
@@ -9512,7 +9548,7 @@
         <v>1</v>
       </c>
       <c r="AP68">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="69" spans="1:42">
@@ -9640,7 +9676,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="70" spans="1:42">
@@ -9768,7 +9804,7 @@
         <v>1</v>
       </c>
       <c r="AP70">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="71" spans="1:42">
@@ -9896,7 +9932,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>0.9230769230846152</v>
+        <v>0.9166666666749999</v>
       </c>
     </row>
     <row r="72" spans="1:42">
@@ -10024,7 +10060,7 @@
         <v>1</v>
       </c>
       <c r="AP72">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="73" spans="1:42">
@@ -10152,7 +10188,7 @@
         <v>1</v>
       </c>
       <c r="AP73">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="74" spans="1:42">
@@ -10280,7 +10316,7 @@
         <v>1</v>
       </c>
       <c r="AP74">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="75" spans="1:42">
@@ -10408,7 +10444,7 @@
         <v>1</v>
       </c>
       <c r="AP75">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="76" spans="1:42">
@@ -10536,7 +10572,7 @@
         <v>1</v>
       </c>
       <c r="AP76">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="77" spans="1:42">
@@ -10664,7 +10700,7 @@
         <v>1</v>
       </c>
       <c r="AP77">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="78" spans="1:42">
@@ -10792,7 +10828,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="79" spans="1:42">
@@ -10920,7 +10956,7 @@
         <v>1</v>
       </c>
       <c r="AP79">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="80" spans="1:42">
@@ -11048,7 +11084,7 @@
         <v>1</v>
       </c>
       <c r="AP80">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="81" spans="1:42">
@@ -11176,7 +11212,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="82" spans="1:42">
@@ -11304,7 +11340,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="83" spans="1:42">
@@ -11432,7 +11468,7 @@
         <v>1</v>
       </c>
       <c r="AP83">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="84" spans="1:42">
@@ -11560,7 +11596,7 @@
         <v>1</v>
       </c>
       <c r="AP84">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="85" spans="1:42">
@@ -11688,7 +11724,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="86" spans="1:42">
@@ -11816,7 +11852,7 @@
         <v>1</v>
       </c>
       <c r="AP86">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="87" spans="1:42">
@@ -11944,7 +11980,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>0.9134615384692306</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="88" spans="1:42">
@@ -12072,7 +12108,7 @@
         <v>1</v>
       </c>
       <c r="AP88">
-        <v>0.8365384615461537</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="89" spans="1:42">
@@ -12200,7 +12236,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>0.8365384615461537</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="90" spans="1:42">
@@ -12328,7 +12364,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>0.8365384615461537</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="91" spans="1:42">
@@ -12456,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="AP91">
-        <v>0.8365384615461537</v>
+        <v>0.9062500000083332</v>
       </c>
     </row>
     <row r="92" spans="1:42">
@@ -12584,7 +12620,7 @@
         <v>0</v>
       </c>
       <c r="AP92">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="93" spans="1:42">
@@ -12712,7 +12748,7 @@
         <v>0</v>
       </c>
       <c r="AP93">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="94" spans="1:42">
@@ -12840,7 +12876,7 @@
         <v>0</v>
       </c>
       <c r="AP94">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="95" spans="1:42">
@@ -12968,7 +13004,7 @@
         <v>0</v>
       </c>
       <c r="AP95">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="96" spans="1:42">
@@ -13096,7 +13132,7 @@
         <v>0</v>
       </c>
       <c r="AP96">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="97" spans="1:42">
@@ -13224,7 +13260,7 @@
         <v>0</v>
       </c>
       <c r="AP97">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="98" spans="1:42">
@@ -13352,7 +13388,7 @@
         <v>0</v>
       </c>
       <c r="AP98">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="99" spans="1:42">
@@ -13480,7 +13516,7 @@
         <v>0</v>
       </c>
       <c r="AP99">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="100" spans="1:42">
@@ -13608,7 +13644,7 @@
         <v>0</v>
       </c>
       <c r="AP100">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="101" spans="1:42">
@@ -13736,7 +13772,7 @@
         <v>0</v>
       </c>
       <c r="AP101">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="102" spans="1:42">
@@ -13864,7 +13900,7 @@
         <v>0</v>
       </c>
       <c r="AP102">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="103" spans="1:42">
@@ -13992,7 +14028,7 @@
         <v>0</v>
       </c>
       <c r="AP103">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="104" spans="1:42">
@@ -14120,7 +14156,7 @@
         <v>0</v>
       </c>
       <c r="AP104">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="105" spans="1:42">
@@ -14248,7 +14284,7 @@
         <v>0</v>
       </c>
       <c r="AP105">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="106" spans="1:42">
@@ -14376,7 +14412,7 @@
         <v>0</v>
       </c>
       <c r="AP106">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="107" spans="1:42">
@@ -14504,7 +14540,7 @@
         <v>0</v>
       </c>
       <c r="AP107">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="108" spans="1:42">
@@ -14632,7 +14668,7 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="109" spans="1:42">
@@ -14760,7 +14796,7 @@
         <v>0</v>
       </c>
       <c r="AP109">
-        <v>0.8076923076999999</v>
+        <v>0.8750000000083332</v>
       </c>
     </row>
     <row r="110" spans="1:42">
@@ -14888,7 +14924,7 @@
         <v>0</v>
       </c>
       <c r="AP110">
-        <v>0.7307692307769228</v>
+        <v>0.7916666666749997</v>
       </c>
     </row>
     <row r="111" spans="1:42">
@@ -15016,7 +15052,7 @@
         <v>0</v>
       </c>
       <c r="AP111">
-        <v>0.7307692307769228</v>
+        <v>0.7916666666749997</v>
       </c>
     </row>
     <row r="112" spans="1:42">
@@ -15144,7 +15180,7 @@
         <v>0</v>
       </c>
       <c r="AP112">
-        <v>0.7307692307769228</v>
+        <v>0.7916666666749997</v>
       </c>
     </row>
     <row r="113" spans="1:42">
@@ -15272,7 +15308,7 @@
         <v>0</v>
       </c>
       <c r="AP113">
-        <v>0.7307692307769228</v>
+        <v>0.7916666666749997</v>
       </c>
     </row>
     <row r="114" spans="1:42">
@@ -15400,7 +15436,7 @@
         <v>0</v>
       </c>
       <c r="AP114">
-        <v>0.7307692307769228</v>
+        <v>0.7916666666749997</v>
       </c>
     </row>
     <row r="115" spans="1:42">
@@ -15528,7 +15564,7 @@
         <v>0</v>
       </c>
       <c r="AP115">
-        <v>0.7307692307769228</v>
+        <v>0.7916666666749997</v>
       </c>
     </row>
     <row r="116" spans="1:42">
@@ -15656,7 +15692,7 @@
         <v>0</v>
       </c>
       <c r="AP116">
-        <v>0.6730769230846152</v>
+        <v>0.7291666666749999</v>
       </c>
     </row>
     <row r="117" spans="1:42">
@@ -15784,7 +15820,7 @@
         <v>0</v>
       </c>
       <c r="AP117">
-        <v>0.6730769230846152</v>
+        <v>0.7291666666749999</v>
       </c>
     </row>
     <row r="118" spans="1:42">
@@ -15912,7 +15948,7 @@
         <v>0</v>
       </c>
       <c r="AP118">
-        <v>0.6730769230846152</v>
+        <v>0.7291666666749999</v>
       </c>
     </row>
     <row r="119" spans="1:42">
@@ -16040,7 +16076,7 @@
         <v>0</v>
       </c>
       <c r="AP119">
-        <v>0.6730769230846152</v>
+        <v>0.7291666666749999</v>
       </c>
     </row>
     <row r="120" spans="1:42">
@@ -16168,7 +16204,7 @@
         <v>0</v>
       </c>
       <c r="AP120">
-        <v>0.6730769230846152</v>
+        <v>0.7291666666749999</v>
       </c>
     </row>
     <row r="121" spans="1:42">
@@ -16296,7 +16332,7 @@
         <v>0</v>
       </c>
       <c r="AP121">
-        <v>0.6730769230846152</v>
+        <v>0.7291666666749999</v>
       </c>
     </row>
     <row r="122" spans="1:42">
@@ -16424,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="AP122">
-        <v>0.6730769230846152</v>
+        <v>0.7291666666749999</v>
       </c>
     </row>
     <row r="123" spans="1:42">
@@ -16552,7 +16588,7 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>0.5865384615230769</v>
+        <v>0.63541666665</v>
       </c>
     </row>
     <row r="124" spans="1:42">
@@ -16680,7 +16716,7 @@
         <v>0</v>
       </c>
       <c r="AP124">
-        <v>0.5865384615230769</v>
+        <v>0.63541666665</v>
       </c>
     </row>
     <row r="125" spans="1:42">
@@ -16808,7 +16844,7 @@
         <v>0</v>
       </c>
       <c r="AP125">
-        <v>0.5865384615230769</v>
+        <v>0.63541666665</v>
       </c>
     </row>
     <row r="126" spans="1:42">
@@ -16936,7 +16972,7 @@
         <v>0</v>
       </c>
       <c r="AP126">
-        <v>0.5865384615230769</v>
+        <v>0.63541666665</v>
       </c>
     </row>
     <row r="127" spans="1:42">
@@ -17064,7 +17100,7 @@
         <v>0</v>
       </c>
       <c r="AP127">
-        <v>0.5865384615230769</v>
+        <v>0.63541666665</v>
       </c>
     </row>
     <row r="128" spans="1:42">
@@ -17192,7 +17228,7 @@
         <v>0</v>
       </c>
       <c r="AP128">
-        <v>0.5865384615230769</v>
+        <v>0.63541666665</v>
       </c>
     </row>
     <row r="129" spans="1:42">
@@ -17320,7 +17356,7 @@
         <v>0</v>
       </c>
       <c r="AP129">
-        <v>0.5865384615230769</v>
+        <v>0.63541666665</v>
       </c>
     </row>
     <row r="130" spans="1:42">
@@ -17448,7 +17484,7 @@
         <v>0</v>
       </c>
       <c r="AP130">
-        <v>0.5480769230615384</v>
+        <v>0.5937499999833332</v>
       </c>
     </row>
     <row r="131" spans="1:42">
@@ -17576,7 +17612,7 @@
         <v>0</v>
       </c>
       <c r="AP131">
-        <v>0.5480769230615384</v>
+        <v>0.5937499999833332</v>
       </c>
     </row>
     <row r="132" spans="1:42">
@@ -17704,7 +17740,7 @@
         <v>0</v>
       </c>
       <c r="AP132">
-        <v>0.5480769230615384</v>
+        <v>0.5937499999833332</v>
       </c>
     </row>
     <row r="133" spans="1:42">
@@ -17832,7 +17868,7 @@
         <v>0</v>
       </c>
       <c r="AP133">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="134" spans="1:42">
@@ -17960,7 +17996,7 @@
         <v>0</v>
       </c>
       <c r="AP134">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="135" spans="1:42">
@@ -18088,7 +18124,7 @@
         <v>0</v>
       </c>
       <c r="AP135">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="136" spans="1:42">
@@ -18216,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="AP136">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="137" spans="1:42">
@@ -18344,7 +18380,7 @@
         <v>0</v>
       </c>
       <c r="AP137">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="138" spans="1:42">
@@ -18472,7 +18508,7 @@
         <v>0</v>
       </c>
       <c r="AP138">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="139" spans="1:42">
@@ -18600,7 +18636,7 @@
         <v>0</v>
       </c>
       <c r="AP139">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="140" spans="1:42">
@@ -18728,7 +18764,7 @@
         <v>0</v>
       </c>
       <c r="AP140">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="141" spans="1:42">
@@ -18856,7 +18892,7 @@
         <v>0</v>
       </c>
       <c r="AP141">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="142" spans="1:42">
@@ -18984,7 +19020,7 @@
         <v>0</v>
       </c>
       <c r="AP142">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="143" spans="1:42">
@@ -19112,7 +19148,7 @@
         <v>0</v>
       </c>
       <c r="AP143">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="144" spans="1:42">
@@ -19240,7 +19276,7 @@
         <v>0</v>
       </c>
       <c r="AP144">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="145" spans="1:42">
@@ -19368,7 +19404,7 @@
         <v>0</v>
       </c>
       <c r="AP145">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="146" spans="1:42">
@@ -19496,7 +19532,7 @@
         <v>0</v>
       </c>
       <c r="AP146">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="147" spans="1:42">
@@ -19624,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="AP147">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="148" spans="1:42">
@@ -19752,7 +19788,7 @@
         <v>0</v>
       </c>
       <c r="AP148">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="149" spans="1:42">
@@ -19880,7 +19916,7 @@
         <v>0</v>
       </c>
       <c r="AP149">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="150" spans="1:42">
@@ -20008,7 +20044,7 @@
         <v>0</v>
       </c>
       <c r="AP150">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="151" spans="1:42">
@@ -20136,7 +20172,7 @@
         <v>0</v>
       </c>
       <c r="AP151">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="152" spans="1:42">
@@ -20264,7 +20300,7 @@
         <v>0</v>
       </c>
       <c r="AP152">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="153" spans="1:42">
@@ -20392,7 +20428,7 @@
         <v>0</v>
       </c>
       <c r="AP153">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="154" spans="1:42">
@@ -20520,7 +20556,7 @@
         <v>0</v>
       </c>
       <c r="AP154">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="155" spans="1:42">
@@ -20648,7 +20684,7 @@
         <v>0</v>
       </c>
       <c r="AP155">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="156" spans="1:42">
@@ -20776,7 +20812,7 @@
         <v>0</v>
       </c>
       <c r="AP156">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="157" spans="1:42">
@@ -20904,7 +20940,7 @@
         <v>0</v>
       </c>
       <c r="AP157">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="158" spans="1:42">
@@ -21032,7 +21068,7 @@
         <v>0</v>
       </c>
       <c r="AP158">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="159" spans="1:42">
@@ -21160,7 +21196,7 @@
         <v>0</v>
       </c>
       <c r="AP159">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="160" spans="1:42">
@@ -21288,7 +21324,7 @@
         <v>0</v>
       </c>
       <c r="AP160">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="161" spans="1:42">
@@ -21416,7 +21452,7 @@
         <v>0</v>
       </c>
       <c r="AP161">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="162" spans="1:42">
@@ -21544,7 +21580,7 @@
         <v>0</v>
       </c>
       <c r="AP162">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="163" spans="1:42">
@@ -21672,7 +21708,7 @@
         <v>0</v>
       </c>
       <c r="AP163">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="164" spans="1:42">
@@ -21800,7 +21836,7 @@
         <v>0</v>
       </c>
       <c r="AP164">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="165" spans="1:42">
@@ -21928,7 +21964,7 @@
         <v>0</v>
       </c>
       <c r="AP165">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="166" spans="1:42">
@@ -22056,7 +22092,7 @@
         <v>0</v>
       </c>
       <c r="AP166">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="167" spans="1:42">
@@ -22184,7 +22220,7 @@
         <v>0</v>
       </c>
       <c r="AP167">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="168" spans="1:42">
@@ -22312,7 +22348,7 @@
         <v>0</v>
       </c>
       <c r="AP168">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="169" spans="1:42">
@@ -22440,7 +22476,7 @@
         <v>0</v>
       </c>
       <c r="AP169">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="170" spans="1:42">
@@ -22568,7 +22604,7 @@
         <v>0</v>
       </c>
       <c r="AP170">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="171" spans="1:42">
@@ -22696,7 +22732,7 @@
         <v>0</v>
       </c>
       <c r="AP171">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="172" spans="1:42">
@@ -22824,7 +22860,7 @@
         <v>0</v>
       </c>
       <c r="AP172">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="173" spans="1:42">
@@ -22952,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="AP173">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="174" spans="1:42">
@@ -23080,7 +23116,7 @@
         <v>0</v>
       </c>
       <c r="AP174">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="175" spans="1:42">
@@ -23208,7 +23244,7 @@
         <v>0</v>
       </c>
       <c r="AP175">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="176" spans="1:42">
@@ -23336,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="AP176">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="177" spans="1:42">
@@ -23464,7 +23500,7 @@
         <v>0</v>
       </c>
       <c r="AP177">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="178" spans="1:42">
@@ -23592,7 +23628,7 @@
         <v>0</v>
       </c>
       <c r="AP178">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="179" spans="1:42">
@@ -23720,7 +23756,7 @@
         <v>0</v>
       </c>
       <c r="AP179">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="180" spans="1:42">
@@ -23848,7 +23884,7 @@
         <v>0</v>
       </c>
       <c r="AP180">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="181" spans="1:42">
@@ -23976,7 +24012,7 @@
         <v>0</v>
       </c>
       <c r="AP181">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="182" spans="1:42">
@@ -24104,7 +24140,7 @@
         <v>0</v>
       </c>
       <c r="AP182">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="183" spans="1:42">
@@ -24232,7 +24268,7 @@
         <v>0</v>
       </c>
       <c r="AP183">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="184" spans="1:42">
@@ -24360,7 +24396,7 @@
         <v>0</v>
       </c>
       <c r="AP184">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="185" spans="1:42">
@@ -24488,7 +24524,7 @@
         <v>0</v>
       </c>
       <c r="AP185">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="186" spans="1:42">
@@ -24616,7 +24652,7 @@
         <v>0</v>
       </c>
       <c r="AP186">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="187" spans="1:42">
@@ -24744,7 +24780,7 @@
         <v>0</v>
       </c>
       <c r="AP187">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="188" spans="1:42">
@@ -24872,7 +24908,7 @@
         <v>0</v>
       </c>
       <c r="AP188">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="189" spans="1:42">
@@ -25000,7 +25036,7 @@
         <v>0</v>
       </c>
       <c r="AP189">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="190" spans="1:42">
@@ -25128,7 +25164,7 @@
         <v>0</v>
       </c>
       <c r="AP190">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="191" spans="1:42">
@@ -25256,7 +25292,7 @@
         <v>0</v>
       </c>
       <c r="AP191">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="192" spans="1:42">
@@ -25384,7 +25420,7 @@
         <v>0</v>
       </c>
       <c r="AP192">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="193" spans="1:42">
@@ -25512,7 +25548,7 @@
         <v>0</v>
       </c>
       <c r="AP193">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="194" spans="1:42">
@@ -25640,7 +25676,7 @@
         <v>0</v>
       </c>
       <c r="AP194">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="195" spans="1:42">
@@ -25768,7 +25804,7 @@
         <v>0</v>
       </c>
       <c r="AP195">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="196" spans="1:42">
@@ -25896,7 +25932,7 @@
         <v>0</v>
       </c>
       <c r="AP196">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="197" spans="1:42">
@@ -26024,7 +26060,7 @@
         <v>0</v>
       </c>
       <c r="AP197">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="198" spans="1:42">
@@ -26152,7 +26188,7 @@
         <v>0</v>
       </c>
       <c r="AP198">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="199" spans="1:42">
@@ -26280,7 +26316,7 @@
         <v>0</v>
       </c>
       <c r="AP199">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="200" spans="1:42">
@@ -26408,7 +26444,7 @@
         <v>0</v>
       </c>
       <c r="AP200">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="201" spans="1:42">
@@ -26536,7 +26572,7 @@
         <v>0</v>
       </c>
       <c r="AP201">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="202" spans="1:42">
@@ -26664,7 +26700,7 @@
         <v>0</v>
       </c>
       <c r="AP202">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="203" spans="1:42">
@@ -26792,7 +26828,7 @@
         <v>0</v>
       </c>
       <c r="AP203">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="204" spans="1:42">
@@ -26920,7 +26956,7 @@
         <v>0</v>
       </c>
       <c r="AP204">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="205" spans="1:42">
@@ -27048,7 +27084,7 @@
         <v>0</v>
       </c>
       <c r="AP205">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="206" spans="1:42">
@@ -27176,7 +27212,7 @@
         <v>0</v>
       </c>
       <c r="AP206">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="207" spans="1:42">
@@ -27304,7 +27340,7 @@
         <v>0</v>
       </c>
       <c r="AP207">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="208" spans="1:42">
@@ -27432,7 +27468,7 @@
         <v>0</v>
       </c>
       <c r="AP208">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="209" spans="1:42">
@@ -27560,7 +27596,7 @@
         <v>0</v>
       </c>
       <c r="AP209">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="210" spans="1:42">
@@ -27688,7 +27724,7 @@
         <v>0</v>
       </c>
       <c r="AP210">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="211" spans="1:42">
@@ -27816,7 +27852,7 @@
         <v>0</v>
       </c>
       <c r="AP211">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="212" spans="1:42">
@@ -27944,7 +27980,7 @@
         <v>0</v>
       </c>
       <c r="AP212">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="213" spans="1:42">
@@ -28072,7 +28108,7 @@
         <v>0</v>
       </c>
       <c r="AP213">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="214" spans="1:42">
@@ -28200,7 +28236,7 @@
         <v>0</v>
       </c>
       <c r="AP214">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="215" spans="1:42">
@@ -28328,7 +28364,7 @@
         <v>0</v>
       </c>
       <c r="AP215">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="216" spans="1:42">
@@ -28456,7 +28492,7 @@
         <v>0</v>
       </c>
       <c r="AP216">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="217" spans="1:42">
@@ -28584,7 +28620,7 @@
         <v>0</v>
       </c>
       <c r="AP217">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="218" spans="1:42">
@@ -28712,7 +28748,7 @@
         <v>0</v>
       </c>
       <c r="AP218">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="219" spans="1:42">
@@ -28840,7 +28876,7 @@
         <v>0</v>
       </c>
       <c r="AP219">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="220" spans="1:42">
@@ -28968,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="AP220">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
       </c>
     </row>
     <row r="221" spans="1:42">
@@ -29096,7 +29132,1543 @@
         <v>0</v>
       </c>
       <c r="AP221">
-        <v>0.3141025641</v>
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="222" spans="1:42">
+      <c r="A222" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B222">
+        <v>0</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+      <c r="D222">
+        <v>1</v>
+      </c>
+      <c r="E222">
+        <v>1</v>
+      </c>
+      <c r="F222">
+        <v>1</v>
+      </c>
+      <c r="G222">
+        <v>0</v>
+      </c>
+      <c r="H222">
+        <v>0</v>
+      </c>
+      <c r="I222">
+        <v>0</v>
+      </c>
+      <c r="J222">
+        <v>0</v>
+      </c>
+      <c r="K222">
+        <v>0</v>
+      </c>
+      <c r="L222">
+        <v>0</v>
+      </c>
+      <c r="M222">
+        <v>0</v>
+      </c>
+      <c r="N222">
+        <v>0</v>
+      </c>
+      <c r="O222">
+        <v>0</v>
+      </c>
+      <c r="P222">
+        <v>0</v>
+      </c>
+      <c r="Q222">
+        <v>0</v>
+      </c>
+      <c r="R222">
+        <v>0</v>
+      </c>
+      <c r="S222">
+        <v>0</v>
+      </c>
+      <c r="T222">
+        <v>0</v>
+      </c>
+      <c r="U222">
+        <v>0</v>
+      </c>
+      <c r="V222">
+        <v>0</v>
+      </c>
+      <c r="W222">
+        <v>0</v>
+      </c>
+      <c r="X222">
+        <v>0</v>
+      </c>
+      <c r="Y222">
+        <v>0</v>
+      </c>
+      <c r="Z222">
+        <v>0</v>
+      </c>
+      <c r="AA222">
+        <v>0</v>
+      </c>
+      <c r="AB222">
+        <v>0</v>
+      </c>
+      <c r="AC222">
+        <v>0</v>
+      </c>
+      <c r="AD222">
+        <v>0</v>
+      </c>
+      <c r="AE222">
+        <v>0</v>
+      </c>
+      <c r="AF222">
+        <v>0</v>
+      </c>
+      <c r="AG222">
+        <v>0</v>
+      </c>
+      <c r="AH222">
+        <v>0</v>
+      </c>
+      <c r="AI222">
+        <v>0</v>
+      </c>
+      <c r="AJ222">
+        <v>1</v>
+      </c>
+      <c r="AK222">
+        <v>1</v>
+      </c>
+      <c r="AL222">
+        <v>1</v>
+      </c>
+      <c r="AM222">
+        <v>1</v>
+      </c>
+      <c r="AN222">
+        <v>1</v>
+      </c>
+      <c r="AO222">
+        <v>0</v>
+      </c>
+      <c r="AP222">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="223" spans="1:42">
+      <c r="A223" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B223">
+        <v>0</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+      <c r="D223">
+        <v>1</v>
+      </c>
+      <c r="E223">
+        <v>1</v>
+      </c>
+      <c r="F223">
+        <v>1</v>
+      </c>
+      <c r="G223">
+        <v>0</v>
+      </c>
+      <c r="H223">
+        <v>0</v>
+      </c>
+      <c r="I223">
+        <v>0</v>
+      </c>
+      <c r="J223">
+        <v>0</v>
+      </c>
+      <c r="K223">
+        <v>0</v>
+      </c>
+      <c r="L223">
+        <v>0</v>
+      </c>
+      <c r="M223">
+        <v>0</v>
+      </c>
+      <c r="N223">
+        <v>0</v>
+      </c>
+      <c r="O223">
+        <v>0</v>
+      </c>
+      <c r="P223">
+        <v>0</v>
+      </c>
+      <c r="Q223">
+        <v>0</v>
+      </c>
+      <c r="R223">
+        <v>0</v>
+      </c>
+      <c r="S223">
+        <v>0</v>
+      </c>
+      <c r="T223">
+        <v>0</v>
+      </c>
+      <c r="U223">
+        <v>0</v>
+      </c>
+      <c r="V223">
+        <v>0</v>
+      </c>
+      <c r="W223">
+        <v>0</v>
+      </c>
+      <c r="X223">
+        <v>0</v>
+      </c>
+      <c r="Y223">
+        <v>0</v>
+      </c>
+      <c r="Z223">
+        <v>0</v>
+      </c>
+      <c r="AA223">
+        <v>0</v>
+      </c>
+      <c r="AB223">
+        <v>0</v>
+      </c>
+      <c r="AC223">
+        <v>0</v>
+      </c>
+      <c r="AD223">
+        <v>0</v>
+      </c>
+      <c r="AE223">
+        <v>0</v>
+      </c>
+      <c r="AF223">
+        <v>0</v>
+      </c>
+      <c r="AG223">
+        <v>0</v>
+      </c>
+      <c r="AH223">
+        <v>0</v>
+      </c>
+      <c r="AI223">
+        <v>0</v>
+      </c>
+      <c r="AJ223">
+        <v>1</v>
+      </c>
+      <c r="AK223">
+        <v>1</v>
+      </c>
+      <c r="AL223">
+        <v>1</v>
+      </c>
+      <c r="AM223">
+        <v>1</v>
+      </c>
+      <c r="AN223">
+        <v>1</v>
+      </c>
+      <c r="AO223">
+        <v>0</v>
+      </c>
+      <c r="AP223">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="224" spans="1:42">
+      <c r="A224" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B224">
+        <v>0</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+      <c r="D224">
+        <v>1</v>
+      </c>
+      <c r="E224">
+        <v>1</v>
+      </c>
+      <c r="F224">
+        <v>1</v>
+      </c>
+      <c r="G224">
+        <v>0</v>
+      </c>
+      <c r="H224">
+        <v>0</v>
+      </c>
+      <c r="I224">
+        <v>0</v>
+      </c>
+      <c r="J224">
+        <v>0</v>
+      </c>
+      <c r="K224">
+        <v>0</v>
+      </c>
+      <c r="L224">
+        <v>0</v>
+      </c>
+      <c r="M224">
+        <v>0</v>
+      </c>
+      <c r="N224">
+        <v>0</v>
+      </c>
+      <c r="O224">
+        <v>0</v>
+      </c>
+      <c r="P224">
+        <v>0</v>
+      </c>
+      <c r="Q224">
+        <v>0</v>
+      </c>
+      <c r="R224">
+        <v>0</v>
+      </c>
+      <c r="S224">
+        <v>0</v>
+      </c>
+      <c r="T224">
+        <v>0</v>
+      </c>
+      <c r="U224">
+        <v>0</v>
+      </c>
+      <c r="V224">
+        <v>0</v>
+      </c>
+      <c r="W224">
+        <v>0</v>
+      </c>
+      <c r="X224">
+        <v>0</v>
+      </c>
+      <c r="Y224">
+        <v>0</v>
+      </c>
+      <c r="Z224">
+        <v>0</v>
+      </c>
+      <c r="AA224">
+        <v>0</v>
+      </c>
+      <c r="AB224">
+        <v>0</v>
+      </c>
+      <c r="AC224">
+        <v>0</v>
+      </c>
+      <c r="AD224">
+        <v>0</v>
+      </c>
+      <c r="AE224">
+        <v>0</v>
+      </c>
+      <c r="AF224">
+        <v>0</v>
+      </c>
+      <c r="AG224">
+        <v>0</v>
+      </c>
+      <c r="AH224">
+        <v>0</v>
+      </c>
+      <c r="AI224">
+        <v>0</v>
+      </c>
+      <c r="AJ224">
+        <v>1</v>
+      </c>
+      <c r="AK224">
+        <v>1</v>
+      </c>
+      <c r="AL224">
+        <v>1</v>
+      </c>
+      <c r="AM224">
+        <v>1</v>
+      </c>
+      <c r="AN224">
+        <v>1</v>
+      </c>
+      <c r="AO224">
+        <v>0</v>
+      </c>
+      <c r="AP224">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="225" spans="1:42">
+      <c r="A225" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B225">
+        <v>0</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+      <c r="D225">
+        <v>1</v>
+      </c>
+      <c r="E225">
+        <v>1</v>
+      </c>
+      <c r="F225">
+        <v>1</v>
+      </c>
+      <c r="G225">
+        <v>0</v>
+      </c>
+      <c r="H225">
+        <v>0</v>
+      </c>
+      <c r="I225">
+        <v>0</v>
+      </c>
+      <c r="J225">
+        <v>0</v>
+      </c>
+      <c r="K225">
+        <v>0</v>
+      </c>
+      <c r="L225">
+        <v>0</v>
+      </c>
+      <c r="M225">
+        <v>0</v>
+      </c>
+      <c r="N225">
+        <v>0</v>
+      </c>
+      <c r="O225">
+        <v>0</v>
+      </c>
+      <c r="P225">
+        <v>0</v>
+      </c>
+      <c r="Q225">
+        <v>0</v>
+      </c>
+      <c r="R225">
+        <v>0</v>
+      </c>
+      <c r="S225">
+        <v>0</v>
+      </c>
+      <c r="T225">
+        <v>0</v>
+      </c>
+      <c r="U225">
+        <v>0</v>
+      </c>
+      <c r="V225">
+        <v>0</v>
+      </c>
+      <c r="W225">
+        <v>0</v>
+      </c>
+      <c r="X225">
+        <v>0</v>
+      </c>
+      <c r="Y225">
+        <v>0</v>
+      </c>
+      <c r="Z225">
+        <v>0</v>
+      </c>
+      <c r="AA225">
+        <v>0</v>
+      </c>
+      <c r="AB225">
+        <v>0</v>
+      </c>
+      <c r="AC225">
+        <v>0</v>
+      </c>
+      <c r="AD225">
+        <v>0</v>
+      </c>
+      <c r="AE225">
+        <v>0</v>
+      </c>
+      <c r="AF225">
+        <v>0</v>
+      </c>
+      <c r="AG225">
+        <v>0</v>
+      </c>
+      <c r="AH225">
+        <v>0</v>
+      </c>
+      <c r="AI225">
+        <v>0</v>
+      </c>
+      <c r="AJ225">
+        <v>1</v>
+      </c>
+      <c r="AK225">
+        <v>1</v>
+      </c>
+      <c r="AL225">
+        <v>1</v>
+      </c>
+      <c r="AM225">
+        <v>1</v>
+      </c>
+      <c r="AN225">
+        <v>1</v>
+      </c>
+      <c r="AO225">
+        <v>0</v>
+      </c>
+      <c r="AP225">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="226" spans="1:42">
+      <c r="A226" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B226">
+        <v>0</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+      <c r="D226">
+        <v>1</v>
+      </c>
+      <c r="E226">
+        <v>1</v>
+      </c>
+      <c r="F226">
+        <v>1</v>
+      </c>
+      <c r="G226">
+        <v>0</v>
+      </c>
+      <c r="H226">
+        <v>0</v>
+      </c>
+      <c r="I226">
+        <v>0</v>
+      </c>
+      <c r="J226">
+        <v>0</v>
+      </c>
+      <c r="K226">
+        <v>0</v>
+      </c>
+      <c r="L226">
+        <v>0</v>
+      </c>
+      <c r="M226">
+        <v>0</v>
+      </c>
+      <c r="N226">
+        <v>0</v>
+      </c>
+      <c r="O226">
+        <v>0</v>
+      </c>
+      <c r="P226">
+        <v>0</v>
+      </c>
+      <c r="Q226">
+        <v>0</v>
+      </c>
+      <c r="R226">
+        <v>0</v>
+      </c>
+      <c r="S226">
+        <v>0</v>
+      </c>
+      <c r="T226">
+        <v>0</v>
+      </c>
+      <c r="U226">
+        <v>0</v>
+      </c>
+      <c r="V226">
+        <v>0</v>
+      </c>
+      <c r="W226">
+        <v>0</v>
+      </c>
+      <c r="X226">
+        <v>0</v>
+      </c>
+      <c r="Y226">
+        <v>0</v>
+      </c>
+      <c r="Z226">
+        <v>0</v>
+      </c>
+      <c r="AA226">
+        <v>0</v>
+      </c>
+      <c r="AB226">
+        <v>0</v>
+      </c>
+      <c r="AC226">
+        <v>0</v>
+      </c>
+      <c r="AD226">
+        <v>0</v>
+      </c>
+      <c r="AE226">
+        <v>0</v>
+      </c>
+      <c r="AF226">
+        <v>0</v>
+      </c>
+      <c r="AG226">
+        <v>0</v>
+      </c>
+      <c r="AH226">
+        <v>0</v>
+      </c>
+      <c r="AI226">
+        <v>0</v>
+      </c>
+      <c r="AJ226">
+        <v>1</v>
+      </c>
+      <c r="AK226">
+        <v>1</v>
+      </c>
+      <c r="AL226">
+        <v>1</v>
+      </c>
+      <c r="AM226">
+        <v>1</v>
+      </c>
+      <c r="AN226">
+        <v>1</v>
+      </c>
+      <c r="AO226">
+        <v>0</v>
+      </c>
+      <c r="AP226">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="227" spans="1:42">
+      <c r="A227" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B227">
+        <v>0</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+      <c r="D227">
+        <v>1</v>
+      </c>
+      <c r="E227">
+        <v>1</v>
+      </c>
+      <c r="F227">
+        <v>1</v>
+      </c>
+      <c r="G227">
+        <v>0</v>
+      </c>
+      <c r="H227">
+        <v>0</v>
+      </c>
+      <c r="I227">
+        <v>0</v>
+      </c>
+      <c r="J227">
+        <v>0</v>
+      </c>
+      <c r="K227">
+        <v>0</v>
+      </c>
+      <c r="L227">
+        <v>0</v>
+      </c>
+      <c r="M227">
+        <v>0</v>
+      </c>
+      <c r="N227">
+        <v>0</v>
+      </c>
+      <c r="O227">
+        <v>0</v>
+      </c>
+      <c r="P227">
+        <v>0</v>
+      </c>
+      <c r="Q227">
+        <v>0</v>
+      </c>
+      <c r="R227">
+        <v>0</v>
+      </c>
+      <c r="S227">
+        <v>0</v>
+      </c>
+      <c r="T227">
+        <v>0</v>
+      </c>
+      <c r="U227">
+        <v>0</v>
+      </c>
+      <c r="V227">
+        <v>0</v>
+      </c>
+      <c r="W227">
+        <v>0</v>
+      </c>
+      <c r="X227">
+        <v>0</v>
+      </c>
+      <c r="Y227">
+        <v>0</v>
+      </c>
+      <c r="Z227">
+        <v>0</v>
+      </c>
+      <c r="AA227">
+        <v>0</v>
+      </c>
+      <c r="AB227">
+        <v>0</v>
+      </c>
+      <c r="AC227">
+        <v>0</v>
+      </c>
+      <c r="AD227">
+        <v>0</v>
+      </c>
+      <c r="AE227">
+        <v>0</v>
+      </c>
+      <c r="AF227">
+        <v>0</v>
+      </c>
+      <c r="AG227">
+        <v>0</v>
+      </c>
+      <c r="AH227">
+        <v>0</v>
+      </c>
+      <c r="AI227">
+        <v>0</v>
+      </c>
+      <c r="AJ227">
+        <v>1</v>
+      </c>
+      <c r="AK227">
+        <v>1</v>
+      </c>
+      <c r="AL227">
+        <v>1</v>
+      </c>
+      <c r="AM227">
+        <v>1</v>
+      </c>
+      <c r="AN227">
+        <v>1</v>
+      </c>
+      <c r="AO227">
+        <v>0</v>
+      </c>
+      <c r="AP227">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="228" spans="1:42">
+      <c r="A228" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="B228">
+        <v>0</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+      <c r="D228">
+        <v>1</v>
+      </c>
+      <c r="E228">
+        <v>1</v>
+      </c>
+      <c r="F228">
+        <v>1</v>
+      </c>
+      <c r="G228">
+        <v>0</v>
+      </c>
+      <c r="H228">
+        <v>0</v>
+      </c>
+      <c r="I228">
+        <v>0</v>
+      </c>
+      <c r="J228">
+        <v>0</v>
+      </c>
+      <c r="K228">
+        <v>0</v>
+      </c>
+      <c r="L228">
+        <v>0</v>
+      </c>
+      <c r="M228">
+        <v>0</v>
+      </c>
+      <c r="N228">
+        <v>0</v>
+      </c>
+      <c r="O228">
+        <v>0</v>
+      </c>
+      <c r="P228">
+        <v>0</v>
+      </c>
+      <c r="Q228">
+        <v>0</v>
+      </c>
+      <c r="R228">
+        <v>0</v>
+      </c>
+      <c r="S228">
+        <v>0</v>
+      </c>
+      <c r="T228">
+        <v>0</v>
+      </c>
+      <c r="U228">
+        <v>0</v>
+      </c>
+      <c r="V228">
+        <v>0</v>
+      </c>
+      <c r="W228">
+        <v>0</v>
+      </c>
+      <c r="X228">
+        <v>0</v>
+      </c>
+      <c r="Y228">
+        <v>0</v>
+      </c>
+      <c r="Z228">
+        <v>0</v>
+      </c>
+      <c r="AA228">
+        <v>0</v>
+      </c>
+      <c r="AB228">
+        <v>0</v>
+      </c>
+      <c r="AC228">
+        <v>0</v>
+      </c>
+      <c r="AD228">
+        <v>0</v>
+      </c>
+      <c r="AE228">
+        <v>0</v>
+      </c>
+      <c r="AF228">
+        <v>0</v>
+      </c>
+      <c r="AG228">
+        <v>0</v>
+      </c>
+      <c r="AH228">
+        <v>0</v>
+      </c>
+      <c r="AI228">
+        <v>0</v>
+      </c>
+      <c r="AJ228">
+        <v>1</v>
+      </c>
+      <c r="AK228">
+        <v>1</v>
+      </c>
+      <c r="AL228">
+        <v>1</v>
+      </c>
+      <c r="AM228">
+        <v>1</v>
+      </c>
+      <c r="AN228">
+        <v>1</v>
+      </c>
+      <c r="AO228">
+        <v>0</v>
+      </c>
+      <c r="AP228">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="229" spans="1:42">
+      <c r="A229" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B229">
+        <v>0</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+      <c r="D229">
+        <v>1</v>
+      </c>
+      <c r="E229">
+        <v>1</v>
+      </c>
+      <c r="F229">
+        <v>1</v>
+      </c>
+      <c r="G229">
+        <v>0</v>
+      </c>
+      <c r="H229">
+        <v>0</v>
+      </c>
+      <c r="I229">
+        <v>0</v>
+      </c>
+      <c r="J229">
+        <v>0</v>
+      </c>
+      <c r="K229">
+        <v>0</v>
+      </c>
+      <c r="L229">
+        <v>0</v>
+      </c>
+      <c r="M229">
+        <v>0</v>
+      </c>
+      <c r="N229">
+        <v>0</v>
+      </c>
+      <c r="O229">
+        <v>0</v>
+      </c>
+      <c r="P229">
+        <v>0</v>
+      </c>
+      <c r="Q229">
+        <v>0</v>
+      </c>
+      <c r="R229">
+        <v>0</v>
+      </c>
+      <c r="S229">
+        <v>0</v>
+      </c>
+      <c r="T229">
+        <v>0</v>
+      </c>
+      <c r="U229">
+        <v>0</v>
+      </c>
+      <c r="V229">
+        <v>0</v>
+      </c>
+      <c r="W229">
+        <v>0</v>
+      </c>
+      <c r="X229">
+        <v>0</v>
+      </c>
+      <c r="Y229">
+        <v>0</v>
+      </c>
+      <c r="Z229">
+        <v>0</v>
+      </c>
+      <c r="AA229">
+        <v>0</v>
+      </c>
+      <c r="AB229">
+        <v>0</v>
+      </c>
+      <c r="AC229">
+        <v>0</v>
+      </c>
+      <c r="AD229">
+        <v>0</v>
+      </c>
+      <c r="AE229">
+        <v>0</v>
+      </c>
+      <c r="AF229">
+        <v>0</v>
+      </c>
+      <c r="AG229">
+        <v>0</v>
+      </c>
+      <c r="AH229">
+        <v>0</v>
+      </c>
+      <c r="AI229">
+        <v>0</v>
+      </c>
+      <c r="AJ229">
+        <v>1</v>
+      </c>
+      <c r="AK229">
+        <v>1</v>
+      </c>
+      <c r="AL229">
+        <v>1</v>
+      </c>
+      <c r="AM229">
+        <v>1</v>
+      </c>
+      <c r="AN229">
+        <v>1</v>
+      </c>
+      <c r="AO229">
+        <v>0</v>
+      </c>
+      <c r="AP229">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="230" spans="1:42">
+      <c r="A230" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B230">
+        <v>0</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+      <c r="D230">
+        <v>1</v>
+      </c>
+      <c r="E230">
+        <v>1</v>
+      </c>
+      <c r="F230">
+        <v>1</v>
+      </c>
+      <c r="G230">
+        <v>0</v>
+      </c>
+      <c r="H230">
+        <v>0</v>
+      </c>
+      <c r="I230">
+        <v>0</v>
+      </c>
+      <c r="J230">
+        <v>0</v>
+      </c>
+      <c r="K230">
+        <v>0</v>
+      </c>
+      <c r="L230">
+        <v>0</v>
+      </c>
+      <c r="M230">
+        <v>0</v>
+      </c>
+      <c r="N230">
+        <v>0</v>
+      </c>
+      <c r="O230">
+        <v>0</v>
+      </c>
+      <c r="P230">
+        <v>0</v>
+      </c>
+      <c r="Q230">
+        <v>0</v>
+      </c>
+      <c r="R230">
+        <v>0</v>
+      </c>
+      <c r="S230">
+        <v>0</v>
+      </c>
+      <c r="T230">
+        <v>0</v>
+      </c>
+      <c r="U230">
+        <v>0</v>
+      </c>
+      <c r="V230">
+        <v>0</v>
+      </c>
+      <c r="W230">
+        <v>0</v>
+      </c>
+      <c r="X230">
+        <v>0</v>
+      </c>
+      <c r="Y230">
+        <v>0</v>
+      </c>
+      <c r="Z230">
+        <v>0</v>
+      </c>
+      <c r="AA230">
+        <v>0</v>
+      </c>
+      <c r="AB230">
+        <v>0</v>
+      </c>
+      <c r="AC230">
+        <v>0</v>
+      </c>
+      <c r="AD230">
+        <v>0</v>
+      </c>
+      <c r="AE230">
+        <v>0</v>
+      </c>
+      <c r="AF230">
+        <v>0</v>
+      </c>
+      <c r="AG230">
+        <v>0</v>
+      </c>
+      <c r="AH230">
+        <v>0</v>
+      </c>
+      <c r="AI230">
+        <v>0</v>
+      </c>
+      <c r="AJ230">
+        <v>1</v>
+      </c>
+      <c r="AK230">
+        <v>1</v>
+      </c>
+      <c r="AL230">
+        <v>1</v>
+      </c>
+      <c r="AM230">
+        <v>1</v>
+      </c>
+      <c r="AN230">
+        <v>1</v>
+      </c>
+      <c r="AO230">
+        <v>0</v>
+      </c>
+      <c r="AP230">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="231" spans="1:42">
+      <c r="A231" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B231">
+        <v>0</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+      <c r="D231">
+        <v>1</v>
+      </c>
+      <c r="E231">
+        <v>1</v>
+      </c>
+      <c r="F231">
+        <v>1</v>
+      </c>
+      <c r="G231">
+        <v>0</v>
+      </c>
+      <c r="H231">
+        <v>0</v>
+      </c>
+      <c r="I231">
+        <v>0</v>
+      </c>
+      <c r="J231">
+        <v>0</v>
+      </c>
+      <c r="K231">
+        <v>0</v>
+      </c>
+      <c r="L231">
+        <v>0</v>
+      </c>
+      <c r="M231">
+        <v>0</v>
+      </c>
+      <c r="N231">
+        <v>0</v>
+      </c>
+      <c r="O231">
+        <v>0</v>
+      </c>
+      <c r="P231">
+        <v>0</v>
+      </c>
+      <c r="Q231">
+        <v>0</v>
+      </c>
+      <c r="R231">
+        <v>0</v>
+      </c>
+      <c r="S231">
+        <v>0</v>
+      </c>
+      <c r="T231">
+        <v>0</v>
+      </c>
+      <c r="U231">
+        <v>0</v>
+      </c>
+      <c r="V231">
+        <v>0</v>
+      </c>
+      <c r="W231">
+        <v>0</v>
+      </c>
+      <c r="X231">
+        <v>0</v>
+      </c>
+      <c r="Y231">
+        <v>0</v>
+      </c>
+      <c r="Z231">
+        <v>0</v>
+      </c>
+      <c r="AA231">
+        <v>0</v>
+      </c>
+      <c r="AB231">
+        <v>0</v>
+      </c>
+      <c r="AC231">
+        <v>0</v>
+      </c>
+      <c r="AD231">
+        <v>0</v>
+      </c>
+      <c r="AE231">
+        <v>0</v>
+      </c>
+      <c r="AF231">
+        <v>0</v>
+      </c>
+      <c r="AG231">
+        <v>0</v>
+      </c>
+      <c r="AH231">
+        <v>0</v>
+      </c>
+      <c r="AI231">
+        <v>0</v>
+      </c>
+      <c r="AJ231">
+        <v>1</v>
+      </c>
+      <c r="AK231">
+        <v>1</v>
+      </c>
+      <c r="AL231">
+        <v>1</v>
+      </c>
+      <c r="AM231">
+        <v>1</v>
+      </c>
+      <c r="AN231">
+        <v>1</v>
+      </c>
+      <c r="AO231">
+        <v>0</v>
+      </c>
+      <c r="AP231">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="232" spans="1:42">
+      <c r="A232" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B232">
+        <v>0</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+      <c r="D232">
+        <v>1</v>
+      </c>
+      <c r="E232">
+        <v>1</v>
+      </c>
+      <c r="F232">
+        <v>1</v>
+      </c>
+      <c r="G232">
+        <v>0</v>
+      </c>
+      <c r="H232">
+        <v>0</v>
+      </c>
+      <c r="I232">
+        <v>0</v>
+      </c>
+      <c r="J232">
+        <v>0</v>
+      </c>
+      <c r="K232">
+        <v>0</v>
+      </c>
+      <c r="L232">
+        <v>0</v>
+      </c>
+      <c r="M232">
+        <v>0</v>
+      </c>
+      <c r="N232">
+        <v>0</v>
+      </c>
+      <c r="O232">
+        <v>0</v>
+      </c>
+      <c r="P232">
+        <v>0</v>
+      </c>
+      <c r="Q232">
+        <v>0</v>
+      </c>
+      <c r="R232">
+        <v>0</v>
+      </c>
+      <c r="S232">
+        <v>0</v>
+      </c>
+      <c r="T232">
+        <v>0</v>
+      </c>
+      <c r="U232">
+        <v>0</v>
+      </c>
+      <c r="V232">
+        <v>0</v>
+      </c>
+      <c r="W232">
+        <v>0</v>
+      </c>
+      <c r="X232">
+        <v>0</v>
+      </c>
+      <c r="Y232">
+        <v>0</v>
+      </c>
+      <c r="Z232">
+        <v>0</v>
+      </c>
+      <c r="AA232">
+        <v>0</v>
+      </c>
+      <c r="AB232">
+        <v>0</v>
+      </c>
+      <c r="AC232">
+        <v>0</v>
+      </c>
+      <c r="AD232">
+        <v>0</v>
+      </c>
+      <c r="AE232">
+        <v>0</v>
+      </c>
+      <c r="AF232">
+        <v>0</v>
+      </c>
+      <c r="AG232">
+        <v>0</v>
+      </c>
+      <c r="AH232">
+        <v>0</v>
+      </c>
+      <c r="AI232">
+        <v>0</v>
+      </c>
+      <c r="AJ232">
+        <v>1</v>
+      </c>
+      <c r="AK232">
+        <v>1</v>
+      </c>
+      <c r="AL232">
+        <v>1</v>
+      </c>
+      <c r="AM232">
+        <v>1</v>
+      </c>
+      <c r="AN232">
+        <v>1</v>
+      </c>
+      <c r="AO232">
+        <v>0</v>
+      </c>
+      <c r="AP232">
+        <v>0.340277777775</v>
+      </c>
+    </row>
+    <row r="233" spans="1:42">
+      <c r="A233" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B233">
+        <v>0</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+      <c r="D233">
+        <v>1</v>
+      </c>
+      <c r="E233">
+        <v>1</v>
+      </c>
+      <c r="F233">
+        <v>1</v>
+      </c>
+      <c r="G233">
+        <v>0</v>
+      </c>
+      <c r="H233">
+        <v>0</v>
+      </c>
+      <c r="I233">
+        <v>0</v>
+      </c>
+      <c r="J233">
+        <v>0</v>
+      </c>
+      <c r="K233">
+        <v>0</v>
+      </c>
+      <c r="L233">
+        <v>0</v>
+      </c>
+      <c r="M233">
+        <v>0</v>
+      </c>
+      <c r="N233">
+        <v>0</v>
+      </c>
+      <c r="O233">
+        <v>0</v>
+      </c>
+      <c r="P233">
+        <v>0</v>
+      </c>
+      <c r="Q233">
+        <v>0</v>
+      </c>
+      <c r="R233">
+        <v>0</v>
+      </c>
+      <c r="S233">
+        <v>0</v>
+      </c>
+      <c r="T233">
+        <v>0</v>
+      </c>
+      <c r="U233">
+        <v>0</v>
+      </c>
+      <c r="V233">
+        <v>0</v>
+      </c>
+      <c r="W233">
+        <v>0</v>
+      </c>
+      <c r="X233">
+        <v>0</v>
+      </c>
+      <c r="Y233">
+        <v>0</v>
+      </c>
+      <c r="Z233">
+        <v>0</v>
+      </c>
+      <c r="AA233">
+        <v>0</v>
+      </c>
+      <c r="AB233">
+        <v>0</v>
+      </c>
+      <c r="AC233">
+        <v>0</v>
+      </c>
+      <c r="AD233">
+        <v>0</v>
+      </c>
+      <c r="AE233">
+        <v>0</v>
+      </c>
+      <c r="AF233">
+        <v>0</v>
+      </c>
+      <c r="AG233">
+        <v>0</v>
+      </c>
+      <c r="AH233">
+        <v>0</v>
+      </c>
+      <c r="AI233">
+        <v>0</v>
+      </c>
+      <c r="AJ233">
+        <v>1</v>
+      </c>
+      <c r="AK233">
+        <v>1</v>
+      </c>
+      <c r="AL233">
+        <v>1</v>
+      </c>
+      <c r="AM233">
+        <v>1</v>
+      </c>
+      <c r="AN233">
+        <v>1</v>
+      </c>
+      <c r="AO233">
+        <v>0</v>
+      </c>
+      <c r="AP233">
+        <v>0.340277777775</v>
       </c>
     </row>
   </sheetData>
